--- a/RUDN/Importance/Varible_reg_in_Western Europe.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Western Europe.xlsx
@@ -14,561 +14,558 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
 </sst>
 </file>
@@ -926,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04989605024456978</v>
+        <v>0.05273833498358727</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -950,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0291060283780098</v>
+        <v>0.04056795313954353</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -958,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0291060283780098</v>
+        <v>0.03042596392333508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -966,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02702702768146992</v>
+        <v>0.02636916749179363</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -974,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02286902256309986</v>
+        <v>0.01825557835400105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -982,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02079002000391483</v>
+        <v>0.01825557835400105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -990,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01871101930737495</v>
+        <v>0.01825557835400105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -998,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01871101930737495</v>
+        <v>0.01622718013823032</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1006,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01871101930737495</v>
+        <v>0.01622718013823032</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1014,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01871101930737495</v>
+        <v>0.01622718013823032</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1022,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01663201674818993</v>
+        <v>0.01622718013823032</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1030,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01663201674818993</v>
+        <v>0.01622718013823032</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1038,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01663201674818993</v>
+        <v>0.01419878285378218</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1046,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01247401256114244</v>
+        <v>0.01419878285378218</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1054,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01247401256114244</v>
+        <v>0.01419878285378218</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1062,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01247401256114244</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1070,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01247401256114244</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1078,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01039501000195742</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1086,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01039501000195742</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1094,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01039501000195742</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1102,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01039501000195742</v>
+        <v>0.01217038556933403</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1110,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1118,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1126,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1134,7 +1131,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1142,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1150,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1158,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008316008374094963</v>
+        <v>0.01014198828488588</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1166,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1174,7 +1171,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1182,7 +1179,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1190,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1198,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1206,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.008316008374094963</v>
+        <v>0.008113590069115162</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1214,7 +1211,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.008316008374094963</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1222,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.008316008374094963</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1230,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.008316008374094963</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1238,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1246,7 +1243,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1254,7 +1251,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1262,7 +1259,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1270,7 +1267,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1278,7 +1275,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1286,7 +1283,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1294,7 +1291,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1302,7 +1299,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1310,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1318,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1326,7 +1323,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1334,7 +1331,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1342,7 +1339,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1350,7 +1347,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.006237006280571222</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1358,7 +1355,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1366,7 +1363,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1374,7 +1371,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1382,7 +1379,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1390,7 +1387,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1398,7 +1395,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1406,7 +1403,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.004158004187047482</v>
+        <v>0.006085192784667015</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1414,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1422,7 +1419,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1430,7 +1427,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1438,7 +1435,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1446,7 +1443,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1454,7 +1451,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1462,7 +1459,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1470,7 +1467,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1478,7 +1475,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1486,7 +1483,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1494,7 +1491,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1502,7 +1499,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1510,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1518,7 +1515,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1526,7 +1523,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1534,7 +1531,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1542,7 +1539,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1550,7 +1547,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1558,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1566,7 +1563,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1574,7 +1571,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1582,7 +1579,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1590,7 +1587,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1598,7 +1595,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1606,7 +1603,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1614,7 +1611,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1622,7 +1619,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1630,7 +1627,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1638,7 +1635,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1646,7 +1643,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1654,7 +1651,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1662,7 +1659,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1670,7 +1667,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1678,7 +1675,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1686,7 +1683,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1694,7 +1691,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.004158004187047482</v>
+        <v>0.004056795034557581</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1702,7 +1699,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1710,7 +1707,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1718,7 +1715,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1726,7 +1723,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1734,7 +1731,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1742,7 +1739,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.004158004187047482</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1750,7 +1747,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1758,7 +1755,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1766,7 +1763,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1774,7 +1771,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1782,7 +1779,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1790,7 +1787,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1798,7 +1795,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1806,7 +1803,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1814,7 +1811,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1822,7 +1819,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1830,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1838,7 +1835,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1846,7 +1843,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1854,7 +1851,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1862,7 +1859,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1870,7 +1867,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1878,7 +1875,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1886,7 +1883,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1894,7 +1891,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1902,7 +1899,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1910,7 +1907,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1918,7 +1915,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1926,7 +1923,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1934,7 +1931,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1942,7 +1939,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1950,7 +1947,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1958,7 +1955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1966,7 +1963,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1974,7 +1971,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1982,7 +1979,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1990,7 +1987,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1998,7 +1995,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2006,7 +2003,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2014,7 +2011,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2022,7 +2019,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2030,7 +2027,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2038,7 +2035,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2046,7 +2043,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2054,7 +2051,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2062,7 +2059,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2070,7 +2067,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2078,7 +2075,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2086,7 +2083,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2094,7 +2091,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2102,7 +2099,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2110,7 +2107,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2118,7 +2115,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2126,7 +2123,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2134,7 +2131,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2142,7 +2139,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2150,7 +2147,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2158,7 +2155,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2166,7 +2163,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2174,7 +2171,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2182,7 +2179,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2190,7 +2187,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2198,7 +2195,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2206,7 +2203,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2214,7 +2211,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2222,7 +2219,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2230,7 +2227,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2238,7 +2235,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2246,7 +2243,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2254,7 +2251,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2262,7 +2259,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2270,7 +2267,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2278,7 +2275,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2286,7 +2283,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2294,7 +2291,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2302,7 +2299,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2310,7 +2307,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2318,7 +2315,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2326,7 +2323,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2334,7 +2331,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2342,7 +2339,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2350,7 +2347,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2358,7 +2355,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2366,7 +2363,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2374,7 +2371,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2382,7 +2379,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2390,7 +2387,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2398,7 +2395,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2406,15 +2403,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.002079002093523741</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>0.002079002093523741</v>
+        <v>0.00202839751727879</v>
       </c>
     </row>
   </sheetData>
